--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_133.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_133.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2402745995423341</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'B', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1098901098901099</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'D']]</t>
+          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(42.313129, 58.392947)]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(19.672232, 31.200939)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:23.980000', '0:00:31.920000'), ('0:00:45.580000', '0:00:49.600000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:24.760000', '0:00:32.420000'), ('0:00:13.980000', '0:00:21.500000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1302197802197802</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.4, 18.24)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:07.525011', '0:00:12.935260')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_76</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1004464285714286</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.74, 12.16)]</t>
+          <t>[('0:00:53.783786', '0:00:58.683197')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:08.605000', '0:00:11.726000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09610983981693363</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb/5', 'Ab', 'Eb/3'], ['Eb', 'Eb/5', 'Ab', 'Eb/3']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3080357142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C', 'G'], ['G', 'G', 'C', 'G']]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(93.1817, 99.497528), (83.26678, 92.322562)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(19.518117, 24.661337), (9.231677, 14.374897)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'G:min7/A#'], ['G:min7/A#', 'C:7', 'F:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj', 'A#:maj/F', 'F:maj']]</t>
-        </is>
+          <t>jaah_1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1133333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'A/3', 'B:min7'], ['B:min7/4', 'E:7', 'A'], ['A:7', 'D', 'A/3'], ['A', 'D', 'A/3']]</t>
+          <t>[['Eb', 'Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(69.06, 72.5), (71.1, 78.7), (61.68, 67.26), (17.34, 24.4)]</t>
+          <t>[['C', 'C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(14.409, 17.913), (47.371, 50.945), (38.689, 45.633), (13.527, 17.058)]</t>
+          <t>[('0:00:02.770000', '0:00:10.940000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:03:55.320000', '0:03:59.980000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4211538461538462</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4540540540540541</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(17.56, 47.24)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(75.56, 95.68)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07857142857142857</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min/5', 'C:min'], ['C:min', 'G:maj', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(17.357, 22.981), (7.523, 10.397)]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.72, 13.0), (14.08, 18.4)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(17.12, 24.9)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.34, 2.34)]</t>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:06.880000', '0:01:14.940000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2905405405405406</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F#/5', 'C#', 'F#/5'], ['C#', 'F#/5', 'C#']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G'], ['D', 'G', 'D']]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(60.391566, 127.006105), (31.46941, 118.925813)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(142.379117, 147.510727), (144.085784, 149.240614)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1019736842105263</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(65.382154, 74.101247)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(75.355124, 80.742154)]</t>
+          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(64.3, 65.72)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(16.84, 19.46)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1729490022172949</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E/3', 'A', 'D'], ['A', 'E/4', 'D/5'], ['E/4', 'A', 'A'], ['A', 'D/5', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A'], ['E', 'B', 'A'], ['B', 'E', 'E'], ['E', 'A', 'E']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(95.673, 99.127), (31.584, 34.232), (6.779, 9.34), (0.939, 3.682)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(17.942016, 24.304284), (11.521699, 16.30501), (29.888683, 33.836075), (6.726778, 13.147096)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:01:08.980000', '0:01:27.200000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3576923076923077</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A/3', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(4.25, 9.179)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(117.54, 121.8)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(20.78, 31.6), (70.74, 73.74), (72.64, 79.22), (73.74, 83.38)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(54.76, 62.82), (59.62, 64.34), (70.98, 80.44), (7.8, 13.6)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2982456140350877</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(44.300045, 55.503673)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(123.22, 127.58)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_52</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.298780487804878</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F', 'C:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(241.22, 251.28)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(49.61, 56.99)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
